--- a/Income/TSLA_inc.xlsx
+++ b/Income/TSLA_inc.xlsx
@@ -1011,10 +1011,8 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>678000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>748000000.0</v>
@@ -1215,22 +1213,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-135000000.0</v>
+        <v>-187000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-50000000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>-143000000.0</v>
+        <v>-269000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-129000000.0</v>
+        <v>-255000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>-323000000.0</v>
+        <v>-449000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-470000000.0</v>
+        <v>-596000000.0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>-593345000.0</v>
@@ -1342,22 +1340,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>119000000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>30000000.0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>34000000.0</v>
+        <v>194000000.0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>213000000.0</v>
+        <v>373000000.0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>377000000.0</v>
+        <v>537000000.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>525000000.0</v>
+        <v>685000000.0</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>689872000.0</v>
@@ -1980,25 +1978,23 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>1.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.63</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.39</v>
+        <v>0.396</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-0.172</v>
+        <v>-0.166</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-1.012</v>
+        <v>-1.006</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>-0.96</v>
@@ -2744,25 +2740,23 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>4594000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4316000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4047000000.0</v>
+        <v>4109000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>3501000000.0</v>
+        <v>3563000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3061000000.0</v>
+        <v>3123000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2211000000.0</v>
+        <v>2273000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>2236366700.0</v>
@@ -3004,16 +2998,16 @@
         <v>1.137</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.7958</v>
+        <v>0.7959</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.7022</v>
+        <v>0.7023</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.531</v>
+        <v>0.5311</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-0.0331</v>
+        <v>-0.033</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>-0.8737</v>
@@ -3636,7 +3630,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1278</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1369</v>

--- a/Income/TSLA_inc.xlsx
+++ b/Income/TSLA_inc.xlsx
@@ -3636,16 +3636,16 @@
         <v>0.1369</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1436</v>
+        <v>0.1458</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1362</v>
+        <v>0.1386</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1176</v>
+        <v>0.12</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.09</v>
+        <v>0.0925</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.0916</v>
